--- a/Questions/Mathematics/Numbers/Integer.xlsx
+++ b/Questions/Mathematics/Numbers/Integer.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,119 +149,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -532,24 +464,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="D4" pane="bottomLeft" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="5.796875"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
+    <col width="5.796875" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -586,7 +518,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="2">
+    <row r="2" ht="27.6" customHeight="1">
       <c r="A2" t="n">
         <v>1093</v>
       </c>
@@ -600,7 +532,7 @@
       </c>
       <c r="D2" s="6" t="inlineStr">
         <is>
-          <t>a%b = a ***** b(a//b)</t>
+          <t>a%b = a ***** b*(a//b)</t>
         </is>
       </c>
       <c r="E2" s="9" t="inlineStr">
@@ -615,7 +547,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="3">
+    <row r="3" ht="27.6" customHeight="1">
       <c r="A3" t="n">
         <v>1094</v>
       </c>
@@ -629,12 +561,12 @@
       </c>
       <c r="D3" s="6" t="inlineStr">
         <is>
-          <t>a%b = a - *****(a//b)</t>
+          <t>a%b = a - b*(*****//b)</t>
         </is>
       </c>
       <c r="E3" s="9" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F3" s="9" t="n"/>
@@ -644,19 +576,833 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="4">
-      <c r="D4" s="6" t="n"/>
-      <c r="E4" s="6" t="n"/>
+    <row r="4" ht="27.6" customHeight="1">
+      <c r="A4" t="n">
+        <v>1119</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D4" s="6" t="inlineStr">
+        <is>
+          <t>def div(a, b):\n\tassert a ***** 0</t>
+        </is>
+      </c>
+      <c r="E4" s="6" t="inlineStr">
+        <is>
+          <t>&gt;=</t>
+        </is>
+      </c>
       <c r="F4" s="6" t="n"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>200819</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="D5" s="6" t="n"/>
-      <c r="E5" s="6" t="n"/>
+      <c r="A5" t="n">
+        <v>1120</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D5" s="6" t="inlineStr">
+        <is>
+          <t>def div(a, b):\n\tassert b ***** 0</t>
+        </is>
+      </c>
+      <c r="E5" s="6" t="inlineStr">
+        <is>
+          <t>&gt;</t>
+        </is>
+      </c>
       <c r="F5" s="6" t="n"/>
-    </row>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>200819</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1121</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>def div(a, b):\n\tif a &lt; b: return *****</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>200819</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="27.6" customHeight="1">
+      <c r="A7" t="n">
+        <v>1122</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>def div(a, b):\n\tcount = 0\n\twhile a ***** b:\n\t\ta -= b\n\t\tcount += 1\n\treturn count</t>
+        </is>
+      </c>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>&gt;=</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>200819</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="41.4" customHeight="1">
+      <c r="A8" t="n">
+        <v>1123</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>def div(a, b):\n\tcount = 0\n\twhile a &gt;= b:\n\t\ta -= *****\n\t\tcount += 1\n\treturn count</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>200819</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1124</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D9" s="6" t="inlineStr">
+        <is>
+          <t>def mod(a, b):\n\tassert a ***** 0</t>
+        </is>
+      </c>
+      <c r="E9" s="6" t="inlineStr">
+        <is>
+          <t>&gt;=</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>200819</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1125</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D10" s="6" t="inlineStr">
+        <is>
+          <t>def mod(a, b):\n\tassert b ***** 0</t>
+        </is>
+      </c>
+      <c r="E10" s="6" t="inlineStr">
+        <is>
+          <t>&gt;</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>200819</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="27.6" customHeight="1">
+      <c r="A11" t="n">
+        <v>1126</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="inlineStr">
+        <is>
+          <t>def digit_at(n, i):\n\treturn (n % pow(10, *****)) // pow(10, i)</t>
+        </is>
+      </c>
+      <c r="E11" s="5" t="inlineStr">
+        <is>
+          <t>i+1</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>200819</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="27.6" customHeight="1">
+      <c r="A12" t="n">
+        <v>1127</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D12" s="5" t="inlineStr">
+        <is>
+          <t>def digit_at(n, i):\n\treturn (n % pow(10, i+1)) // pow(10, *****)</t>
+        </is>
+      </c>
+      <c r="E12" s="5" t="inlineStr">
+        <is>
+          <t>i</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>200819</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1128</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="inlineStr">
+        <is>
+          <t>n ***** 10 = last digit of n</t>
+        </is>
+      </c>
+      <c r="E13" s="5" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>200819</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1129</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="inlineStr">
+        <is>
+          <t>n % ***** = last digit of n</t>
+        </is>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>200819</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1130</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="inlineStr">
+        <is>
+          <t>n % 10 = l***** digit of n</t>
+        </is>
+      </c>
+      <c r="E15" s="5" t="inlineStr">
+        <is>
+          <t>last</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>200819</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1131</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="inlineStr">
+        <is>
+          <t>n // pow(10, len(str(n))) = f***** digit of n</t>
+        </is>
+      </c>
+      <c r="E16" s="5" t="inlineStr">
+        <is>
+          <t>first</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>200819</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1132</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D17" s="5" t="inlineStr">
+        <is>
+          <t>n % pow(10, k) = l***** k digits of n</t>
+        </is>
+      </c>
+      <c r="E17" s="5" t="inlineStr">
+        <is>
+          <t>last</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>200819</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1133</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="inlineStr">
+        <is>
+          <t>n % pow(10, k) = last ***** digits of n</t>
+        </is>
+      </c>
+      <c r="E18" s="5" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>200819</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="27.6" customHeight="1">
+      <c r="A19" t="n">
+        <v>1134</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D19" s="5" t="inlineStr">
+        <is>
+          <t>n // pow(10, len(str(n))-*****) = first k digits of n</t>
+        </is>
+      </c>
+      <c r="E19" s="5" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>200819</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1135</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="inlineStr">
+        <is>
+          <t>n // pow(10, len(str(n))-k) = f***** k digits of n</t>
+        </is>
+      </c>
+      <c r="E20" s="5" t="inlineStr">
+        <is>
+          <t>first</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>200819</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="82.8" customHeight="1">
+      <c r="A21" t="n">
+        <v>1136</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D21" s="5" t="inlineStr">
+        <is>
+          <t>def sum(a, b):\n\ti, summer, prev = 0, 0, 0\n\twhile a &gt;= 10**i:\n\t\td_a = digit_at(a,  i)\n\t\td_b = digit_at(b, i)\n\t\tremainder, prev = u_digit.sum(d_a, d_b, prev)\n\t\tsummer += ***** * (10**i)\n\t\ti += 1\n\tsummer += prev * (10**i)\n\treturn summer</t>
+        </is>
+      </c>
+      <c r="E21" s="5" t="inlineStr">
+        <is>
+          <t>remainder</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>200819</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="82.8" customHeight="1">
+      <c r="A22" t="n">
+        <v>1137</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="inlineStr">
+        <is>
+          <t>def sum(a, b):\n\ti, summer, prev = 0, 0, 0\n\twhile a &gt;= 10**i:\n\t\td_a = digit_at(a,  i)\n\t\td_b = digit_at(b, i)\n\t\tremainder, prev = u_digit.sum(d_a, d_b, prev)\n\t\tsummer += remainder * (10**i)\n\t\ti += 1\n\tsummer += ***** * (10**i)\n\treturn summer</t>
+        </is>
+      </c>
+      <c r="E22" s="5" t="inlineStr">
+        <is>
+          <t>prev</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>200819</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="82.8" customHeight="1">
+      <c r="A23" t="n">
+        <v>1138</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="inlineStr">
+        <is>
+          <t>def mult_digit_int(d, n):\n\t\ti, prev, summer = 0, 0, 0\n\t\twhile n ***** 10**i:\n\t\t\td_n = digit_at(n, i)\n\t\t\tremainder, prev = u_digit.mult(d, d_n, prev)\n\t\t\tsummer += remainder * 10**i\n\t\t\ti += 1\n\t\treturn summer + prev * 10**i</t>
+        </is>
+      </c>
+      <c r="E23" s="5" t="inlineStr">
+        <is>
+          <t>&gt;=</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>200819</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="82.8" customHeight="1">
+      <c r="A24" t="n">
+        <v>1139</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="inlineStr">
+        <is>
+          <t>def mult_digit_int(d, n):\n\t\ti, prev, summer = 0, 0, 0\n\t\twhile n &gt;= 10**i:\n\t\t\td_n = digit_at(n, i)\n\t\t\tremainder, prev = u_digit.mult(*****, d_n, prev)\n\t\t\tsummer += remainder * 10**i\n\t\t\ti += 1\n\t\treturn summer + prev * 10**i</t>
+        </is>
+      </c>
+      <c r="E24" s="5" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>200819</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="82.8" customHeight="1">
+      <c r="A25" t="n">
+        <v>1140</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D25" s="5" t="inlineStr">
+        <is>
+          <t>def mult_digit_int(d, n):\n\t\ti, prev, summer = 0, 0, 0\n\t\twhile n &gt;= *****:\n\t\t\td_n = digit_at(n, i)\n\t\t\tremainder, prev = u_digit.mult(d, d_n, prev)\n\t\t\tsummer += remainder * 10**i\n\t\t\ti += 1\n\t\treturn summer + prev * 10**i</t>
+        </is>
+      </c>
+      <c r="E25" s="5" t="inlineStr">
+        <is>
+          <t>10**i</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>200819</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="82.8" customHeight="1">
+      <c r="A26" t="n">
+        <v>1141</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D26" s="5" t="inlineStr">
+        <is>
+          <t>def mult_digit_int(d, n):\n\t\ti, prev, summer = 0, 0, 0\n\t\twhile n &gt;= 10**i:\n\t\t\td_n = digit_at(n, i)\n\t\t\tremainder, prev = u_digit.mult(d, d_n, prev)\n\t\t\tsummer += remainder * *****\n\t\t\ti += 1\n\t\treturn summer + prev * 10**i</t>
+        </is>
+      </c>
+      <c r="E26" s="5" t="inlineStr">
+        <is>
+          <t>10**i</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>200819</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" ht="82.8" customHeight="1">
+      <c r="A27" t="n">
+        <v>1142</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D27" s="5" t="inlineStr">
+        <is>
+          <t>def mult_digit_int(d, n):\n\t\ti, prev, summer = 0, 0, 0\n\t\twhile n &gt;= 10**i:\n\t\t\td_n = digit_at(n, i)\n\t\t\tremainder, prev = u_digit.mult(d, d_n, prev)\n\t\t\tsummer += remainder * 10**i\n\t\t\ti += 1\n\t\treturn summer + ***** * 10**i</t>
+        </is>
+      </c>
+      <c r="E27" s="5" t="inlineStr">
+        <is>
+          <t>prev</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>200819</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="55.2" customHeight="1">
+      <c r="A28" t="n">
+        <v>1143</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D28" s="5" t="inlineStr">
+        <is>
+          <t>def mult(a, b):\n\t\ti, summer = 0, 0\n\t\twhile a &gt;= *****:\n\t\t\td = digit_at(a, i)\n\t\t\t# sum and shift\n\t\t\tsummer += mult_digit_int(d, b) * 10**i\n\t\t\ti += 1\n\t\treturn summer</t>
+        </is>
+      </c>
+      <c r="E28" s="5" t="inlineStr">
+        <is>
+          <t>10**i</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>200819</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="55.2" customHeight="1">
+      <c r="A29" t="n">
+        <v>1144</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D29" s="5" t="inlineStr">
+        <is>
+          <t>def mult(a, b):\n\t\ti, summer = 0, 0\n\t\twhile a &gt;= 10**i:\n\t\t\td = digit_at(a, *****)\n\t\t\tsummer += mult_digit_int(d, b) * 10**i\n\t\t\ti += 1\n\t\treturn summer</t>
+        </is>
+      </c>
+      <c r="E29" s="5" t="inlineStr">
+        <is>
+          <t>i</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>200819</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" ht="55.2" customHeight="1">
+      <c r="A30" t="n">
+        <v>1145</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D30" s="5" t="inlineStr">
+        <is>
+          <t>def mult(a, b):\n\t\ti, summer = 0, 0\n\t\twhile a &gt;= 10**i:\n\t\t\td = digit_at(a, i)\n\t\t\t# sum and shift\n\t\t\tsummer += mult_digit_int(d, b) * *****\n\t\t\ti += 1\n\t\treturn summer</t>
+        </is>
+      </c>
+      <c r="E30" s="5" t="inlineStr">
+        <is>
+          <t>10**i</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>200819</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1146</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D31" s="5" t="inlineStr">
+        <is>
+          <t>Generate #13 Div</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>200819</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1147</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D32" s="5" t="inlineStr">
+        <is>
+          <t>Generate #14 Modulo</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>200819</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1148</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D33" s="5" t="inlineStr">
+        <is>
+          <t>Generate #15 Pow</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>200819</t>
+        </is>
+      </c>
+    </row>
+    <row r="34"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -668,7 +1414,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -680,7 +1426,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -691,7 +1437,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Mathematics/Numbers/Integer.xlsx
+++ b/Questions/Mathematics/Numbers/Integer.xlsx
@@ -194,6 +194,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -464,7 +532,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
@@ -1399,7 +1467,6 @@
         </is>
       </c>
     </row>
-    <row r="34"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="3">

--- a/Questions/Mathematics/Numbers/Integer.xlsx
+++ b/Questions/Mathematics/Numbers/Integer.xlsx
@@ -194,74 +194,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -532,7 +464,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
@@ -1467,6 +1399,7 @@
         </is>
       </c>
     </row>
+    <row r="34"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="3">

--- a/Questions/Mathematics/Numbers/Integer.xlsx
+++ b/Questions/Mathematics/Numbers/Integer.xlsx
@@ -194,6 +194,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 

--- a/Questions/Mathematics/Numbers/Integer.xlsx
+++ b/Questions/Mathematics/Numbers/Integer.xlsx
@@ -194,74 +194,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 

--- a/Questions/Mathematics/Numbers/Integer.xlsx
+++ b/Questions/Mathematics/Numbers/Integer.xlsx
@@ -9,7 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="181029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -151,7 +151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -188,6 +188,12 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -464,11 +470,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E40" sqref="E40"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
@@ -1056,12 +1062,12 @@
       </c>
       <c r="D21" s="5" t="inlineStr">
         <is>
-          <t>def sum(a, b):\n\ti, summer, prev = 0, 0, 0\n\twhile a &gt;= 10**i:\n\t\td_a = digit_at(a,  i)\n\t\td_b = digit_at(b, i)\n\t\tremainder, prev = u_digit.sum(d_a, d_b, prev)\n\t\tsummer += ***** * (10**i)\n\t\ti += 1\n\tsummer += prev * (10**i)\n\treturn summer</t>
+          <t>def plus(a, b):\n\t\ta, b = max(a, b), *****\n\t\tres = 0\n\t\td_prev = 0\n\t\tfor i, d_a in enumerate(digits(a)):\n\t\t\td_b = digit_at(b, i)\n\t\t\td_remainder, d_prev = u_digit.plus(d_a, d_b, d_prev)\n\t\t\tres += shift_left(d_remainder, i)\n\t\tres += shift_left(d_prev, length(a)\n\t\treturn res</t>
         </is>
       </c>
       <c r="E21" s="5" t="inlineStr">
         <is>
-          <t>remainder</t>
+          <t>min(a, b)</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1084,12 +1090,12 @@
       </c>
       <c r="D22" s="5" t="inlineStr">
         <is>
-          <t>def sum(a, b):\n\ti, summer, prev = 0, 0, 0\n\twhile a &gt;= 10**i:\n\t\td_a = digit_at(a,  i)\n\t\td_b = digit_at(b, i)\n\t\tremainder, prev = u_digit.sum(d_a, d_b, prev)\n\t\tsummer += remainder * (10**i)\n\t\ti += 1\n\tsummer += ***** * (10**i)\n\treturn summer</t>
+          <t>def plus(a, b):\n\t\ta, b = max(a, b), min(a, b)\n\t\tres = 0\n\t\td_prev = 0\n\t\tfor i, d_a in *****:\n\t\t\td_b = digit_at(b, i)\n\t\t\td_remainder, d_prev = u_digit.plus(d_a, d_b, d_prev)\n\t\t\tres += shift_left(d_remainder, i)\n\t\tres += shift_left(d_prev, length(a)\n\t\treturn res</t>
         </is>
       </c>
       <c r="E22" s="5" t="inlineStr">
         <is>
-          <t>prev</t>
+          <t>enumerate(digits(a))</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1100,7 +1106,7 @@
     </row>
     <row r="23" ht="82.8" customHeight="1">
       <c r="A23" t="n">
-        <v>1138</v>
+        <v>1263</v>
       </c>
       <c r="B23" t="n">
         <v>1</v>
@@ -1112,23 +1118,23 @@
       </c>
       <c r="D23" s="5" t="inlineStr">
         <is>
-          <t>def mult_digit_int(d, n):\n\t\ti, prev, summer = 0, 0, 0\n\t\twhile n ***** 10**i:\n\t\t\td_n = digit_at(n, i)\n\t\t\tremainder, prev = u_digit.mult(d, d_n, prev)\n\t\t\tsummer += remainder * 10**i\n\t\t\ti += 1\n\t\treturn summer + prev * 10**i</t>
+          <t>def plus(a, b):\n\t\ta, b = max(a, b), min(a, b)\n\t\tres = 0\n\t\td_prev = 0\n\t\tfor i, d_a in enumerate(digits(a)):\n\t\t\td_b = *****\n\t\t\td_remainder, d_prev = u_digit.plus(d_a, d_b, d_prev)\n\t\t\tres += shift_left(d_remainder, i)\n\t\tres += shift_left(d_prev, length(a)\n\t\treturn res</t>
         </is>
       </c>
       <c r="E23" s="5" t="inlineStr">
         <is>
-          <t>&gt;=</t>
+          <t>digit_at(b, i)</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>200819</t>
+          <t>200922</t>
         </is>
       </c>
     </row>
     <row r="24" ht="82.8" customHeight="1">
       <c r="A24" t="n">
-        <v>1139</v>
+        <v>1264</v>
       </c>
       <c r="B24" t="n">
         <v>1</v>
@@ -1140,23 +1146,23 @@
       </c>
       <c r="D24" s="5" t="inlineStr">
         <is>
-          <t>def mult_digit_int(d, n):\n\t\ti, prev, summer = 0, 0, 0\n\t\twhile n &gt;= 10**i:\n\t\t\td_n = digit_at(n, i)\n\t\t\tremainder, prev = u_digit.mult(*****, d_n, prev)\n\t\t\tsummer += remainder * 10**i\n\t\t\ti += 1\n\t\treturn summer + prev * 10**i</t>
+          <t>def plus(a, b):\n\t\ta, b = max(a, b), min(a, b)\n\t\tres = 0\n\t\td_prev = 0\n\t\tfor i, d_a in enumerate(digits(a)):\n\t\t\td_b = digit_at(b, i)\n\t\t\td_remainder, d_prev = u_digit.plus(*****)\n\t\t\tres += shift_left(d_remainder, i)\n\t\tres += shift_left(d_prev, length(a)\n\t\treturn res</t>
         </is>
       </c>
       <c r="E24" s="5" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>d_a, d_b, d_prev</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>200819</t>
+          <t>200922</t>
         </is>
       </c>
     </row>
     <row r="25" ht="82.8" customHeight="1">
       <c r="A25" t="n">
-        <v>1140</v>
+        <v>1265</v>
       </c>
       <c r="B25" t="n">
         <v>1</v>
@@ -1168,23 +1174,23 @@
       </c>
       <c r="D25" s="5" t="inlineStr">
         <is>
-          <t>def mult_digit_int(d, n):\n\t\ti, prev, summer = 0, 0, 0\n\t\twhile n &gt;= *****:\n\t\t\td_n = digit_at(n, i)\n\t\t\tremainder, prev = u_digit.mult(d, d_n, prev)\n\t\t\tsummer += remainder * 10**i\n\t\t\ti += 1\n\t\treturn summer + prev * 10**i</t>
+          <t>def plus(a, b):\n\t\ta, b = max(a, b), min(a, b)\n\t\tres = 0\n\t\td_prev = 0\n\t\tfor i, d_a in enumerate(digits(a)):\n\t\t\td_b = digit_at(b, i)\n\t\t\td_remainder, d_prev = u_digit.plus(d_a, d_b, d_prev)\n\t\t\tres += shift_left(*****)\n\t\tres += shift_left(d_prev, length(a)\n\t\treturn res</t>
         </is>
       </c>
       <c r="E25" s="5" t="inlineStr">
         <is>
-          <t>10**i</t>
+          <t>d_remainder, i</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>200819</t>
+          <t>200922</t>
         </is>
       </c>
     </row>
     <row r="26" ht="82.8" customHeight="1">
       <c r="A26" t="n">
-        <v>1141</v>
+        <v>1266</v>
       </c>
       <c r="B26" t="n">
         <v>1</v>
@@ -1196,338 +1202,674 @@
       </c>
       <c r="D26" s="5" t="inlineStr">
         <is>
-          <t>def mult_digit_int(d, n):\n\t\ti, prev, summer = 0, 0, 0\n\t\twhile n &gt;= 10**i:\n\t\t\td_n = digit_at(n, i)\n\t\t\tremainder, prev = u_digit.mult(d, d_n, prev)\n\t\t\tsummer += remainder * *****\n\t\t\ti += 1\n\t\treturn summer + prev * 10**i</t>
+          <t>def plus(a, b):\n\t\ta, b = max(a, b), min(a, b)\n\t\tres = 0\n\t\td_prev = 0\n\t\tfor i, d_a in enumerate(digits(a)):\n\t\t\td_b = digit_at(b, i)\n\t\t\td_remainder, d_prev = u_digit.plus(d_a, d_b, d_prev)\n\t\t\tres += shift_left(d_remainder, i)\n\t\tres += shift_left(*****, length(a)\n\t\treturn res</t>
         </is>
       </c>
       <c r="E26" s="5" t="inlineStr">
         <is>
-          <t>10**i</t>
+          <t>d_prev</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>200819</t>
+          <t>200922</t>
         </is>
       </c>
     </row>
     <row r="27" ht="82.8" customHeight="1">
       <c r="A27" t="n">
+        <v>1267</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D27" s="5" t="inlineStr">
+        <is>
+          <t>def minus(a, b):\n\t\tif a &lt; b:\n\t\t\treturn *****(b, a)\n\t\td_prev, res = 0, 0\n\t\tfor i, d_a in enumerate(digits(a)):\n\t\t\td_b = digit_at(b, i)\n\t\t\td_remainder, d_prev = u_digit.minus(d_a, d_b, d_prev)\n\t\t\tres += shift_left(d_remainder, i)\n\t\treturn res</t>
+        </is>
+      </c>
+      <c r="E27" s="13" t="inlineStr">
+        <is>
+          <t>-minus</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>200922</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="82.8" customHeight="1">
+      <c r="A28" t="n">
+        <v>1268</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D28" s="5" t="inlineStr">
+        <is>
+          <t>def minus(a, b):\n\t\tif a &lt; b:\n\t\t\treturn -minus(*****)\n\t\td_prev, res = 0, 0\n\t\tfor i, d_a in enumerate(digits(a)):\n\t\t\td_b = digit_at(b, i)\n\t\t\td_remainder, d_prev = u_digit.minus(d_a, d_b, d_prev)\n\t\t\tres += shift_left(d_remainder, i)\n\t\treturn res</t>
+        </is>
+      </c>
+      <c r="E28" s="5" t="inlineStr">
+        <is>
+          <t>b, a</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>200922</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="82.8" customHeight="1">
+      <c r="A29" t="n">
+        <v>1269</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D29" s="5" t="inlineStr">
+        <is>
+          <t>def minus(a, b):\n\t\tif a &lt; b:\n\t\t\treturn -minus(b, a)\n\t\td_prev, res = 0, 0\n\t\tfor i, d_a in enumerate(digits(a)):\n\t\t\td_b = digit_at(b, i)\n\t\t\td_remainder, d_prev = u_digit.minus(*****)\n\t\t\tres += shift_left(d_remainder, i)\n\t\treturn res</t>
+        </is>
+      </c>
+      <c r="E29" s="5" t="inlineStr">
+        <is>
+          <t>d_a, d_b, d_prev</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>200922</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" ht="82.8" customHeight="1">
+      <c r="A30" t="n">
+        <v>1270</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D30" s="5" t="inlineStr">
+        <is>
+          <t>def minus(a, b):\n\t\tif a &lt; b:\n\t\t\treturn -minus(b, a)\n\t\td_prev, res = 0, 0\n\t\tfor i, d_a in enumerate(digits(a)):\n\t\t\td_b = digit_at(b, i)\n\t\t\td_remainder, d_prev = u_digit.minus(d_a, d_b, d_prev)\n\t\t\tres += shift_left(*****)\n\t\treturn res</t>
+        </is>
+      </c>
+      <c r="E30" s="5" t="inlineStr">
+        <is>
+          <t>d_remainder, i</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>200922</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" ht="82.8" customHeight="1">
+      <c r="A31" t="n">
+        <v>1138</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D31" s="5" t="inlineStr">
+        <is>
+          <t>def mult_digit_int(d, n):\n\t\td_prev, res = 0, 0\n\t\tfor i, d_n in enumerate(digits(n)):\n\t\t\t***** = u_digit.mult(d, d_n, d_prev)\n\t\t\tres += shift_left(d_remainder, i)\n\t\tres += shift_left(d_prev, length(n))\n\t\treturn res</t>
+        </is>
+      </c>
+      <c r="E31" s="5" t="inlineStr">
+        <is>
+          <t>d_remainder, d_prev</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>200819</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" ht="82.8" customHeight="1">
+      <c r="A32" t="n">
+        <v>1139</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D32" s="5" t="inlineStr">
+        <is>
+          <t>def mult_digit_int(d, n):\n\t\td_prev, res = 0, 0\n\t\tfor i, d_n in enumerate(digits(n)):\n\t\t\td_remainder, d_prev = u_digit.mult(d, d_n, d_prev)\n\t\t\t***** += shift_left(d_remainder, i)\n\t\tres += shift_left(d_prev, length(n))\n\t\treturn res</t>
+        </is>
+      </c>
+      <c r="E32" s="5" t="inlineStr">
+        <is>
+          <t>res</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>200819</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="82.8" customHeight="1">
+      <c r="A33" t="n">
+        <v>1140</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D33" s="5" t="inlineStr">
+        <is>
+          <t>def mult_digit_int(d, n):\n\t\td_prev, res = 0, 0\n\t\tfor i, d_n in enumerate(digits(n)):\n\t\t\td_remainder, d_prev = u_digit.mult(d, d_n, d_prev)\n\t\t\tres += shift_left(d_remainder, i)\n\t\tres += shift_left(*****, length(n))\n\t\treturn res</t>
+        </is>
+      </c>
+      <c r="E33" s="5" t="inlineStr">
+        <is>
+          <t>d_prev</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>200819</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" ht="82.8" customHeight="1">
+      <c r="A34" t="n">
+        <v>1141</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D34" s="5" t="inlineStr">
+        <is>
+          <t>def mult_digit_int(d, n):\n\t\td_prev, res = 0, 0\n\t\tfor i, d_n in enumerate(digits(n)):\n\t\t\td_remainder, d_prev = u_digit.mult(d, d_n, d_prev)\n\t\t\tres += shift_left(d_remainder, i)\n\t\tres += shift_left(d_prev, length(*****))\n\t\treturn res</t>
+        </is>
+      </c>
+      <c r="E34" s="5" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>200819</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" ht="82.8" customHeight="1">
+      <c r="A35" t="n">
         <v>1142</v>
       </c>
-      <c r="B27" t="n">
-        <v>1</v>
-      </c>
-      <c r="C27" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D27" s="5" t="inlineStr">
-        <is>
-          <t>def mult_digit_int(d, n):\n\t\ti, prev, summer = 0, 0, 0\n\t\twhile n &gt;= 10**i:\n\t\t\td_n = digit_at(n, i)\n\t\t\tremainder, prev = u_digit.mult(d, d_n, prev)\n\t\t\tsummer += remainder * 10**i\n\t\t\ti += 1\n\t\treturn summer + ***** * 10**i</t>
-        </is>
-      </c>
-      <c r="E27" s="5" t="inlineStr">
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D35" s="5" t="inlineStr">
+        <is>
+          <t>def mult_digit_int(d, n):\n\t\td_prev, res = 0, 0\n\t\tfor i, d_n in enumerate(digits(n)):\n\t\t\td_remainder, d_prev = u_digit.mult(d, d_n, d_prev)\n\t\t\tres += shift_left(d_remainder, i)\n\t\tres += shift_left(d_prev, length(n))\n\t\treturn res</t>
+        </is>
+      </c>
+      <c r="E35" s="5" t="inlineStr">
         <is>
           <t>prev</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>200819</t>
-        </is>
-      </c>
-    </row>
-    <row r="28" ht="55.2" customHeight="1">
-      <c r="A28" t="n">
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>200819</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" ht="55.2" customHeight="1">
+      <c r="A36" t="n">
         <v>1143</v>
       </c>
-      <c r="B28" t="n">
-        <v>1</v>
-      </c>
-      <c r="C28" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D28" s="5" t="inlineStr">
-        <is>
-          <t>def mult(a, b):\n\t\ti, summer = 0, 0\n\t\twhile a &gt;= *****:\n\t\t\td = digit_at(a, i)\n\t\t\t# sum and shift\n\t\t\tsummer += mult_digit_int(d, b) * 10**i\n\t\t\ti += 1\n\t\treturn summer</t>
-        </is>
-      </c>
-      <c r="E28" s="5" t="inlineStr">
+      <c r="B36" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D36" s="5" t="inlineStr">
+        <is>
+          <t>res = 0\n\t\tfor i, d in enumerate(*****):\n\t\t\tres += shift_left(mult_digit_int(d, b), i)\n\t\treturn res</t>
+        </is>
+      </c>
+      <c r="E36" s="5" t="inlineStr">
+        <is>
+          <t>digits(a)</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>200819</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" ht="55.2" customHeight="1">
+      <c r="A37" t="n">
+        <v>1144</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D37" s="5" t="inlineStr">
+        <is>
+          <t>res = 0\n\t\tfor i, d in enumerate(digits(a)):\n\t\t\tres += *****_left(mult_digit_int(d, b), i)\n\t\treturn res</t>
+        </is>
+      </c>
+      <c r="E37" s="5" t="inlineStr">
+        <is>
+          <t>shift</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>200819</t>
+        </is>
+      </c>
+    </row>
+    <row r="38" ht="55.2" customHeight="1">
+      <c r="A38" t="n">
+        <v>1145</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D38" s="14" t="inlineStr">
+        <is>
+          <t>res = 0\n\t\tfor i, d in enumerate(digits(a)):\n\t\t\tres += shift_left(mult_digit_int(*****), i)\n\t\treturn res</t>
+        </is>
+      </c>
+      <c r="E38" s="5" t="inlineStr">
+        <is>
+          <t>d, b</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>200819</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>1146</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D39" s="5" t="inlineStr">
+        <is>
+          <t>Generate #13 Div</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>200819</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>1147</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D40" s="5" t="inlineStr">
+        <is>
+          <t>Generate #14 Modulo</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>200819</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>1148</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D41" s="5" t="inlineStr">
+        <is>
+          <t>Generate #15 Pow</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>200819</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1167</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D42" s="5" t="inlineStr">
+        <is>
+          <t>u_integer.digit_at(n=123, i=0)</t>
+        </is>
+      </c>
+      <c r="E42" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>200825</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>1168</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D43" s="5" t="inlineStr">
+        <is>
+          <t>u_integer.digit_at(n=123, i=3)</t>
+        </is>
+      </c>
+      <c r="E43" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>200825</t>
+        </is>
+      </c>
+    </row>
+    <row r="44" ht="82.8" customHeight="1">
+      <c r="A44" t="n">
+        <v>1169</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D44" s="5" t="inlineStr">
+        <is>
+          <t>def minus(a, b):\n\t\tif a &lt; b:\n\t\t\treturn -*****(b, a)\n\t\ti, prev, res = 0, 0, 0\n\t\twhile a &gt;= 10**i:\n\t\t\td_a, d_b = digit_at(a, i), digit_at(b, i)\n\t\t\tremainder, prev = u_digit..minus(d_a, d_b, prev)\n\t\t\tres += remainder * 10**i\n\t\t\ti += 1\n\t\treturn res</t>
+        </is>
+      </c>
+      <c r="E44" s="5" t="inlineStr">
+        <is>
+          <t>minus</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>200825</t>
+        </is>
+      </c>
+    </row>
+    <row r="45" ht="82.8" customHeight="1">
+      <c r="A45" t="n">
+        <v>1170</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D45" s="5" t="inlineStr">
+        <is>
+          <t>def minus(a, b):\n\t\tif a &lt; b:\n\t\t\treturn -minus(b, a)\n\t\ti, prev, res = 0, 0, 0\n\t\twhile a &gt;= *****:\n\t\t\td_a, d_b = digit_at(a, i), digit_at(b, i)\n\t\t\tremainder, prev = u_digit..minus(d_a, d_b, prev)\n\t\t\tres += remainder * 10**i\n\t\t\ti += 1\n\t\treturn res</t>
+        </is>
+      </c>
+      <c r="E45" s="5" t="inlineStr">
         <is>
           <t>10**i</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>200819</t>
-        </is>
-      </c>
-    </row>
-    <row r="29" ht="55.2" customHeight="1">
-      <c r="A29" t="n">
-        <v>1144</v>
-      </c>
-      <c r="B29" t="n">
-        <v>1</v>
-      </c>
-      <c r="C29" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D29" s="5" t="inlineStr">
-        <is>
-          <t>def mult(a, b):\n\t\ti, summer = 0, 0\n\t\twhile a &gt;= 10**i:\n\t\t\td = digit_at(a, *****)\n\t\t\tsummer += mult_digit_int(d, b) * 10**i\n\t\t\ti += 1\n\t\treturn summer</t>
-        </is>
-      </c>
-      <c r="E29" s="5" t="inlineStr">
-        <is>
-          <t>i</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>200819</t>
-        </is>
-      </c>
-    </row>
-    <row r="30" ht="55.2" customHeight="1">
-      <c r="A30" t="n">
-        <v>1145</v>
-      </c>
-      <c r="B30" t="n">
-        <v>1</v>
-      </c>
-      <c r="C30" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D30" s="5" t="inlineStr">
-        <is>
-          <t>def mult(a, b):\n\t\ti, summer = 0, 0\n\t\twhile a &gt;= 10**i:\n\t\t\td = digit_at(a, i)\n\t\t\t# sum and shift\n\t\t\tsummer += mult_digit_int(d, b) * *****\n\t\t\ti += 1\n\t\treturn summer</t>
-        </is>
-      </c>
-      <c r="E30" s="5" t="inlineStr">
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>200825</t>
+        </is>
+      </c>
+    </row>
+    <row r="46" ht="82.8" customHeight="1">
+      <c r="A46" t="n">
+        <v>1171</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D46" s="5" t="inlineStr">
+        <is>
+          <t>def minus(a, b):\n\t\tif a &lt; b:\n\t\t\treturn -minus(b, a)\n\t\ti, prev, res = 0, 0, 0\n\t\twhile a &gt;= 10**i:\n\t\t\td_a, d_b = digit_at(a, i), digit_at(b, i)\n\t\t\tremainder, prev = u_digit..minus(d_a, d_b, prev)\n\t\t\tres += ***** * 10**i\n\t\t\ti += 1\n\t\treturn res</t>
+        </is>
+      </c>
+      <c r="E46" s="5" t="inlineStr">
+        <is>
+          <t>remainder</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>200825</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>1271</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D47" s="5" t="inlineStr">
+        <is>
+          <t>def length(n):\n\t\treturn len(*****)</t>
+        </is>
+      </c>
+      <c r="E47" s="5" t="inlineStr">
+        <is>
+          <t>str(n)</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>200922</t>
+        </is>
+      </c>
+    </row>
+    <row r="48" ht="55.2" customHeight="1">
+      <c r="A48" t="n">
+        <v>1272</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D48" s="5" t="inlineStr">
+        <is>
+          <t>def digits(n):\n\t\tif not n:\n\t\t\treturn *****\n\t\ti, li = 0, list()\n\t\twhile n &gt;= 10**i:\n\t\t\td = digit_at(n, i)\n\t\t\tli.append(d)\n\t\t\ti += 1\n\t\treturn li</t>
+        </is>
+      </c>
+      <c r="E48" s="5" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>200922</t>
+        </is>
+      </c>
+    </row>
+    <row r="49" ht="55.2" customHeight="1">
+      <c r="A49" t="n">
+        <v>1273</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D49" s="5" t="inlineStr">
+        <is>
+          <t>def digits(n):\n\t\tif not n:\n\t\t\treturn [0]\n\t\ti, li = 0, list()\n\t\twhile n &gt;= *****:\n\t\t\td = digit_at(n, i)\n\t\t\tli.append(d)\n\t\t\ti += 1\n\t\treturn li</t>
+        </is>
+      </c>
+      <c r="E49" s="5" t="inlineStr">
         <is>
           <t>10**i</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>200819</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>1146</v>
-      </c>
-      <c r="B31" t="n">
-        <v>1</v>
-      </c>
-      <c r="C31" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D31" s="5" t="inlineStr">
-        <is>
-          <t>Generate #13 Div</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>200819</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>1147</v>
-      </c>
-      <c r="B32" t="n">
-        <v>1</v>
-      </c>
-      <c r="C32" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D32" s="5" t="inlineStr">
-        <is>
-          <t>Generate #14 Modulo</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>200819</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>1148</v>
-      </c>
-      <c r="B33" t="n">
-        <v>1</v>
-      </c>
-      <c r="C33" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D33" s="5" t="inlineStr">
-        <is>
-          <t>Generate #15 Pow</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>200819</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>1167</v>
-      </c>
-      <c r="B34" t="n">
-        <v>1</v>
-      </c>
-      <c r="C34" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D34" s="5" t="inlineStr">
-        <is>
-          <t>u_integer.digit_at(n=123, i=0)</t>
-        </is>
-      </c>
-      <c r="E34" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>200825</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>1168</v>
-      </c>
-      <c r="B35" t="n">
-        <v>1</v>
-      </c>
-      <c r="C35" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D35" s="5" t="inlineStr">
-        <is>
-          <t>u_integer.digit_at(n=123, i=3)</t>
-        </is>
-      </c>
-      <c r="E35" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>200825</t>
-        </is>
-      </c>
-    </row>
-    <row r="36" ht="82.8" customHeight="1">
-      <c r="A36" t="n">
-        <v>1169</v>
-      </c>
-      <c r="B36" t="n">
-        <v>1</v>
-      </c>
-      <c r="C36" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D36" s="5" t="inlineStr">
-        <is>
-          <t>def minus(a, b):\n\t\tif a &lt; b:\n\t\t\treturn -*****(b, a)\n\t\ti, prev, res = 0, 0, 0\n\t\twhile a &gt;= 10**i:\n\t\t\td_a, d_b = digit_at(a, i), digit_at(b, i)\n\t\t\tremainder, prev = u_digit..minus(d_a, d_b, prev)\n\t\t\tres += remainder * 10**i\n\t\t\ti += 1\n\t\treturn res</t>
-        </is>
-      </c>
-      <c r="E36" s="5" t="inlineStr">
-        <is>
-          <t>minus</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>200825</t>
-        </is>
-      </c>
-    </row>
-    <row r="37" ht="82.8" customHeight="1">
-      <c r="A37" t="n">
-        <v>1170</v>
-      </c>
-      <c r="B37" t="n">
-        <v>1</v>
-      </c>
-      <c r="C37" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D37" s="5" t="inlineStr">
-        <is>
-          <t>def minus(a, b):\n\t\tif a &lt; b:\n\t\t\treturn -minus(b, a)\n\t\ti, prev, res = 0, 0, 0\n\t\twhile a &gt;= *****:\n\t\t\td_a, d_b = digit_at(a, i), digit_at(b, i)\n\t\t\tremainder, prev = u_digit..minus(d_a, d_b, prev)\n\t\t\tres += remainder * 10**i\n\t\t\ti += 1\n\t\treturn res</t>
-        </is>
-      </c>
-      <c r="E37" s="5" t="inlineStr">
-        <is>
-          <t>10**i</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>200825</t>
-        </is>
-      </c>
-    </row>
-    <row r="38" ht="82.8" customHeight="1">
-      <c r="A38" t="n">
-        <v>1171</v>
-      </c>
-      <c r="B38" t="n">
-        <v>1</v>
-      </c>
-      <c r="C38" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D38" s="5" t="inlineStr">
-        <is>
-          <t>def minus(a, b):\n\t\tif a &lt; b:\n\t\t\treturn -minus(b, a)\n\t\ti, prev, res = 0, 0, 0\n\t\twhile a &gt;= 10**i:\n\t\t\td_a, d_b = digit_at(a, i), digit_at(b, i)\n\t\t\tremainder, prev = u_digit..minus(d_a, d_b, prev)\n\t\t\tres += ***** * 10**i\n\t\t\ti += 1\n\t\treturn res</t>
-        </is>
-      </c>
-      <c r="E38" s="5" t="inlineStr">
-        <is>
-          <t>remainder</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>200825</t>
-        </is>
-      </c>
-    </row>
-    <row r="39"/>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>200922</t>
+        </is>
+      </c>
+    </row>
+    <row r="50" ht="55.2" customHeight="1">
+      <c r="A50" t="n">
+        <v>1274</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D50" s="5" t="inlineStr">
+        <is>
+          <t>def digits(n):\n\t\tif not n:\n\t\t\treturn [0]\n\t\ti, li = 0, list()\n\t\twhile n &gt;= 10**i:\n\t\t\td = digit_at(*****)\n\t\t\tli.append(d)\n\t\t\ti += 1\n\t\treturn li</t>
+        </is>
+      </c>
+      <c r="E50" s="5" t="inlineStr">
+        <is>
+          <t>n, i</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>200922</t>
+        </is>
+      </c>
+    </row>
+    <row r="51"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="3">

--- a/Questions/Mathematics/Numbers/Integer.xlsx
+++ b/Questions/Mathematics/Numbers/Integer.xlsx
@@ -9,7 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="181029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -473,8 +473,8 @@
   <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E52" sqref="E52"/>
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
@@ -1062,7 +1062,7 @@
       </c>
       <c r="D21" s="5" t="inlineStr">
         <is>
-          <t>def plus(a, b):\n\t\ta, b = max(a, b), *****\n\t\tres = 0\n\t\td_prev = 0\n\t\tfor i, d_a in enumerate(digits(a)):\n\t\t\td_b = digit_at(b, i)\n\t\t\td_remainder, d_prev = u_digit.plus(d_a, d_b, d_prev)\n\t\t\tres += shift_left(d_remainder, i)\n\t\tres += shift_left(d_prev, length(a)\n\t\treturn res</t>
+          <t>def plus(a, b):\n\t\ta, b = max(a, b), *****\n\t\tres = 0\n\t\td_prev = 0\n\t\tfor i, d_a in enumerate(digits(a)):\n\t\t\td_b = digit_at(b, i)\n\t\t\td_remainder, d_prev = u_digit.plus(d_a, d_b, d_prev)\n\t\t\tres += shift_left(d_remainder, i)\n\t\tres += shift_left(d_prev, length(a))\n\t\treturn res</t>
         </is>
       </c>
       <c r="E21" s="5" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="D22" s="5" t="inlineStr">
         <is>
-          <t>def plus(a, b):\n\t\ta, b = max(a, b), min(a, b)\n\t\tres = 0\n\t\td_prev = 0\n\t\tfor i, d_a in *****:\n\t\t\td_b = digit_at(b, i)\n\t\t\td_remainder, d_prev = u_digit.plus(d_a, d_b, d_prev)\n\t\t\tres += shift_left(d_remainder, i)\n\t\tres += shift_left(d_prev, length(a)\n\t\treturn res</t>
+          <t>def plus(a, b):\n\t\ta, b = max(a, b), min(a, b)\n\t\tres = 0\n\t\td_prev = 0\n\t\tfor i, d_a in *****:\n\t\t\td_b = digit_at(b, i)\n\t\t\td_remainder, d_prev = u_digit.plus(d_a, d_b, d_prev)\n\t\t\tres += shift_left(d_remainder, i)\n\t\tres += shift_left(d_prev, length(a))\n\t\treturn res</t>
         </is>
       </c>
       <c r="E22" s="5" t="inlineStr">
@@ -1118,7 +1118,7 @@
       </c>
       <c r="D23" s="5" t="inlineStr">
         <is>
-          <t>def plus(a, b):\n\t\ta, b = max(a, b), min(a, b)\n\t\tres = 0\n\t\td_prev = 0\n\t\tfor i, d_a in enumerate(digits(a)):\n\t\t\td_b = *****\n\t\t\td_remainder, d_prev = u_digit.plus(d_a, d_b, d_prev)\n\t\t\tres += shift_left(d_remainder, i)\n\t\tres += shift_left(d_prev, length(a)\n\t\treturn res</t>
+          <t>def plus(a, b):\n\t\ta, b = max(a, b), min(a, b)\n\t\tres = 0\n\t\td_prev = 0\n\t\tfor i, d_a in enumerate(digits(a)):\n\t\t\td_b = *****\n\t\t\td_remainder, d_prev = u_digit.plus(d_a, d_b, d_prev)\n\t\t\tres += shift_left(d_remainder, i)\n\t\tres += shift_left(d_prev, length(a))\n\t\treturn res</t>
         </is>
       </c>
       <c r="E23" s="5" t="inlineStr">
@@ -1146,7 +1146,7 @@
       </c>
       <c r="D24" s="5" t="inlineStr">
         <is>
-          <t>def plus(a, b):\n\t\ta, b = max(a, b), min(a, b)\n\t\tres = 0\n\t\td_prev = 0\n\t\tfor i, d_a in enumerate(digits(a)):\n\t\t\td_b = digit_at(b, i)\n\t\t\td_remainder, d_prev = u_digit.plus(*****)\n\t\t\tres += shift_left(d_remainder, i)\n\t\tres += shift_left(d_prev, length(a)\n\t\treturn res</t>
+          <t>def plus(a, b):\n\t\ta, b = max(a, b), min(a, b)\n\t\tres = 0\n\t\td_prev = 0\n\t\tfor i, d_a in enumerate(digits(a)):\n\t\t\td_b = digit_at(b, i)\n\t\t\td_remainder, d_prev = u_digit.plus(*****)\n\t\t\tres += shift_left(d_remainder, i)\n\t\tres += shift_left(d_prev, length(a))\n\t\treturn res</t>
         </is>
       </c>
       <c r="E24" s="5" t="inlineStr">
@@ -1174,7 +1174,7 @@
       </c>
       <c r="D25" s="5" t="inlineStr">
         <is>
-          <t>def plus(a, b):\n\t\ta, b = max(a, b), min(a, b)\n\t\tres = 0\n\t\td_prev = 0\n\t\tfor i, d_a in enumerate(digits(a)):\n\t\t\td_b = digit_at(b, i)\n\t\t\td_remainder, d_prev = u_digit.plus(d_a, d_b, d_prev)\n\t\t\tres += shift_left(*****)\n\t\tres += shift_left(d_prev, length(a)\n\t\treturn res</t>
+          <t>def plus(a, b):\n\t\ta, b = max(a, b), min(a, b)\n\t\tres = 0\n\t\td_prev = 0\n\t\tfor i, d_a in enumerate(digits(a)):\n\t\t\td_b = digit_at(b, i)\n\t\t\td_remainder, d_prev = u_digit.plus(d_a, d_b, d_prev)\n\t\t\tres += shift_left(*****)\n\t\tres += shift_left(d_prev, length(a))\n\t\treturn res</t>
         </is>
       </c>
       <c r="E25" s="5" t="inlineStr">
@@ -1202,7 +1202,7 @@
       </c>
       <c r="D26" s="5" t="inlineStr">
         <is>
-          <t>def plus(a, b):\n\t\ta, b = max(a, b), min(a, b)\n\t\tres = 0\n\t\td_prev = 0\n\t\tfor i, d_a in enumerate(digits(a)):\n\t\t\td_b = digit_at(b, i)\n\t\t\td_remainder, d_prev = u_digit.plus(d_a, d_b, d_prev)\n\t\t\tres += shift_left(d_remainder, i)\n\t\tres += shift_left(*****, length(a)\n\t\treturn res</t>
+          <t>def plus(a, b):\n\t\ta, b = max(a, b), min(a, b)\n\t\tres = 0\n\t\td_prev = 0\n\t\tfor i, d_a in enumerate(digits(a)):\n\t\t\td_b = digit_at(b, i)\n\t\t\td_remainder, d_prev = u_digit.plus(d_a, d_b, d_prev)\n\t\t\tres += shift_left(d_remainder, i)\n\t\tres += shift_left(*****, length(a))\n\t\treturn res</t>
         </is>
       </c>
       <c r="E26" s="5" t="inlineStr">
@@ -1482,7 +1482,7 @@
       </c>
       <c r="D36" s="5" t="inlineStr">
         <is>
-          <t>res = 0\n\t\tfor i, d in enumerate(*****):\n\t\t\tres += shift_left(mult_digit_int(d, b), i)\n\t\treturn res</t>
+          <t>def mult(a,b):\n\t\tres = 0\n\t\tfor i, d in enumerate(*****):\n\t\t\tres += shift_left(mult_digit_int(d, b), i)\n\t\treturn res</t>
         </is>
       </c>
       <c r="E36" s="5" t="inlineStr">
@@ -1510,7 +1510,7 @@
       </c>
       <c r="D37" s="5" t="inlineStr">
         <is>
-          <t>res = 0\n\t\tfor i, d in enumerate(digits(a)):\n\t\t\tres += *****_left(mult_digit_int(d, b), i)\n\t\treturn res</t>
+          <t>def mult(a,b):\n\t\tres = 0\n\t\tfor i, d in enumerate(digits(a)):\n\t\t\tres += *****_left(mult_digit_int(d, b), i)\n\t\treturn res</t>
         </is>
       </c>
       <c r="E37" s="5" t="inlineStr">
@@ -1538,7 +1538,7 @@
       </c>
       <c r="D38" s="14" t="inlineStr">
         <is>
-          <t>res = 0\n\t\tfor i, d in enumerate(digits(a)):\n\t\t\tres += shift_left(mult_digit_int(*****), i)\n\t\treturn res</t>
+          <t>def mult(a,b):\n\t\tres = 0\n\t\tfor i, d in enumerate(digits(a)):\n\t\t\tres += shift_left(mult_digit_int(*****), i)\n\t\treturn res</t>
         </is>
       </c>
       <c r="E38" s="5" t="inlineStr">
@@ -1799,7 +1799,7 @@
       </c>
       <c r="D48" s="5" t="inlineStr">
         <is>
-          <t>def digits(n):\n\t\tif not n:\n\t\t\treturn *****\n\t\ti, li = 0, list()\n\t\twhile n &gt;= 10**i:\n\t\t\td = digit_at(n, i)\n\t\t\tli.append(d)\n\t\t\ti += 1\n\t\treturn li</t>
+          <t>def digits(n):\n\t\tif not n:\n\t\t\treturn *****\n\t\ti, li = 0, list()\n\t\twhile n &gt;= 10**i:\n\t\t\t# while there is digit in index i\n\t\t\td = digit_at(n, i)\n\t\t\tli.append(d)\n\t\t\ti += 1\n\t\treturn li</t>
         </is>
       </c>
       <c r="E48" s="5" t="inlineStr">
@@ -1827,7 +1827,7 @@
       </c>
       <c r="D49" s="5" t="inlineStr">
         <is>
-          <t>def digits(n):\n\t\tif not n:\n\t\t\treturn [0]\n\t\ti, li = 0, list()\n\t\twhile n &gt;= *****:\n\t\t\td = digit_at(n, i)\n\t\t\tli.append(d)\n\t\t\ti += 1\n\t\treturn li</t>
+          <t>def digits(n):\n\t\tif not n:\n\t\t\treturn [0]\n\t\ti, li = 0, list()\n\t\twhile n &gt;= *****:\n\t\t\t# while there is digit in index i\n\t\t\td = digit_at(n, i)\n\t\t\tli.append(d)\n\t\t\ti += 1\n\t\treturn li</t>
         </is>
       </c>
       <c r="E49" s="5" t="inlineStr">
@@ -1855,7 +1855,7 @@
       </c>
       <c r="D50" s="5" t="inlineStr">
         <is>
-          <t>def digits(n):\n\t\tif not n:\n\t\t\treturn [0]\n\t\ti, li = 0, list()\n\t\twhile n &gt;= 10**i:\n\t\t\td = digit_at(*****)\n\t\t\tli.append(d)\n\t\t\ti += 1\n\t\treturn li</t>
+          <t>def digits(n):\n\t\tif not n:\n\t\t\treturn [0]\n\t\ti, li = 0, list()\n\t\twhile n &gt;= 10**i:\n\t\t\t# while there is digit in index i\n\t\t\td = digit_at(*****)\n\t\t\tli.append(d)\n\t\t\ti += 1\n\t\treturn li</t>
         </is>
       </c>
       <c r="E50" s="5" t="inlineStr">

--- a/Questions/Mathematics/Numbers/Integer.xlsx
+++ b/Questions/Mathematics/Numbers/Integer.xlsx
@@ -200,6 +200,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -470,7 +538,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
@@ -1867,7 +1935,6 @@
         </is>
       </c>
     </row>
-    <row r="51"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="3">

--- a/Questions/Mathematics/Numbers/Integer.xlsx
+++ b/Questions/Mathematics/Numbers/Integer.xlsx
@@ -200,74 +200,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -538,11 +470,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
@@ -1072,7 +1004,7 @@
       </c>
       <c r="D19" s="5" t="inlineStr">
         <is>
-          <t>n // 10**length(n)-***** = first (left) k digits of n</t>
+          <t>n // 10**(length(n)-*****) = first (left) k digits of n</t>
         </is>
       </c>
       <c r="E19" s="5" t="inlineStr">
@@ -1935,6 +1867,7 @@
         </is>
       </c>
     </row>
+    <row r="51"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="3">

--- a/Questions/Mathematics/Numbers/Integer.xlsx
+++ b/Questions/Mathematics/Numbers/Integer.xlsx
@@ -473,8 +473,8 @@
   <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>

--- a/Questions/Mathematics/Numbers/Integer.xlsx
+++ b/Questions/Mathematics/Numbers/Integer.xlsx
@@ -200,6 +200,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -470,7 +538,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
@@ -1867,7 +1935,6 @@
         </is>
       </c>
     </row>
-    <row r="51"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="3">

--- a/Questions/Mathematics/Numbers/Integer.xlsx
+++ b/Questions/Mathematics/Numbers/Integer.xlsx
@@ -200,74 +200,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -538,7 +470,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
@@ -1935,6 +1867,7 @@
         </is>
       </c>
     </row>
+    <row r="51"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="3">

--- a/Questions/Mathematics/Numbers/Integer.xlsx
+++ b/Questions/Mathematics/Numbers/Integer.xlsx
@@ -200,6 +200,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -538,7 +606,7 @@
       </c>
       <c r="D2" s="6" t="inlineStr">
         <is>
-          <t>a%b = a ***** b*(a//b)</t>
+          <t>a%b = a * b*(a//b)</t>
         </is>
       </c>
       <c r="E2" s="9" t="inlineStr">
@@ -567,7 +635,7 @@
       </c>
       <c r="D3" s="6" t="inlineStr">
         <is>
-          <t>a%b = a - b*(*****//b)</t>
+          <t>a%b = a - b*(//b)</t>
         </is>
       </c>
       <c r="E3" s="9" t="inlineStr">
@@ -596,7 +664,7 @@
       </c>
       <c r="D4" s="6" t="inlineStr">
         <is>
-          <t>def div(a, b):\n\tassert a &gt;= *****</t>
+          <t>def div(a, b):\n\tassert a &gt;= *</t>
         </is>
       </c>
       <c r="E4" s="6" t="n">
@@ -623,7 +691,7 @@
       </c>
       <c r="D5" s="6" t="inlineStr">
         <is>
-          <t>def div(a, b):\n\tassert b &gt;= *****</t>
+          <t>def div(a, b):\n\tassert b &gt;= *</t>
         </is>
       </c>
       <c r="E5" s="6" t="n">
@@ -650,7 +718,7 @@
       </c>
       <c r="D6" s="5" t="inlineStr">
         <is>
-          <t>def div(a, b):\n\tif a &lt; b: return *****</t>
+          <t>def div(a, b):\n\tif a &lt; b: return *</t>
         </is>
       </c>
       <c r="E6" s="5" t="n">
@@ -676,7 +744,7 @@
       </c>
       <c r="D7" s="5" t="inlineStr">
         <is>
-          <t>def div(a, b):\n\tcount = 0\n\twhile a ***** b:\n\t\ta -= b\n\t\tcount += 1\n\treturn count</t>
+          <t>def div(a, b):\n\tcount = 0\n\twhile a ** b:\n\t\ta -= b\n\t\tcount += 1\n\treturn count</t>
         </is>
       </c>
       <c r="E7" s="5" t="inlineStr">
@@ -704,7 +772,7 @@
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
-          <t>def div(a, b):\n\tcount = 0\n\twhile a &gt;= b:\n\t\ta -= *****\n\t\tcount += 1\n\treturn count</t>
+          <t>def div(a, b):\n\tcount = 0\n\twhile a &gt;= b:\n\t\ta -= *\n\t\tcount += 1\n\treturn count</t>
         </is>
       </c>
       <c r="E8" s="5" t="inlineStr">
@@ -732,7 +800,7 @@
       </c>
       <c r="D9" s="6" t="inlineStr">
         <is>
-          <t>def mod(a, b):\n\tassert a &gt;= *****</t>
+          <t>def mod(a, b):\n\tassert a &gt;= *</t>
         </is>
       </c>
       <c r="E9" s="6" t="n">
@@ -758,7 +826,7 @@
       </c>
       <c r="D10" s="6" t="inlineStr">
         <is>
-          <t>def mod(a, b):\n\tassert b &gt;= *****</t>
+          <t>def mod(a, b):\n\tassert b &gt;= *</t>
         </is>
       </c>
       <c r="E10" s="6" t="n">
@@ -812,7 +880,7 @@
       </c>
       <c r="D12" s="5" t="inlineStr">
         <is>
-          <t>def digit_at(n, i):\n\treturn (n // 10**i) % *****</t>
+          <t>def digit_at(n, i):\n\treturn (n // 10**i) % **</t>
         </is>
       </c>
       <c r="E12" s="5" t="n">
@@ -838,7 +906,7 @@
       </c>
       <c r="D13" s="5" t="inlineStr">
         <is>
-          <t>n ***** 10 = last digit of n</t>
+          <t>n * 10 = last digit of n</t>
         </is>
       </c>
       <c r="E13" s="5" t="inlineStr">
@@ -866,7 +934,7 @@
       </c>
       <c r="D14" s="5" t="inlineStr">
         <is>
-          <t>n % ***** = last digit of n</t>
+          <t>n % ** = last digit of n</t>
         </is>
       </c>
       <c r="E14" s="5" t="n">
@@ -892,7 +960,7 @@
       </c>
       <c r="D15" s="5" t="inlineStr">
         <is>
-          <t>n % 10 = l***** digit of n</t>
+          <t>n % 10 = l*** digit of n</t>
         </is>
       </c>
       <c r="E15" s="5" t="inlineStr">
@@ -920,7 +988,7 @@
       </c>
       <c r="D16" s="5" t="inlineStr">
         <is>
-          <t>n // 10**(length(n)-1) = f***** (left) digit of n</t>
+          <t>n // 10**(length(n)-1) = f**** (left) digit of n</t>
         </is>
       </c>
       <c r="E16" s="5" t="inlineStr">
@@ -948,7 +1016,7 @@
       </c>
       <c r="D17" s="5" t="inlineStr">
         <is>
-          <t>n % 10**k = l***** (right) k digits of n</t>
+          <t>n % 10**k = l*** (right) k digits of n</t>
         </is>
       </c>
       <c r="E17" s="5" t="inlineStr">
@@ -976,7 +1044,7 @@
       </c>
       <c r="D18" s="5" t="inlineStr">
         <is>
-          <t>n % 10**k = last (right) ***** digits of n</t>
+          <t>n % 10**k = last (right) * digits of n</t>
         </is>
       </c>
       <c r="E18" s="5" t="inlineStr">
@@ -1004,7 +1072,7 @@
       </c>
       <c r="D19" s="5" t="inlineStr">
         <is>
-          <t>n // 10**(length(n)-*****) = first (left) k digits of n</t>
+          <t>n // 10**(length(n)-) = first (left) k digits of n</t>
         </is>
       </c>
       <c r="E19" s="5" t="inlineStr">
@@ -1032,7 +1100,7 @@
       </c>
       <c r="D20" s="5" t="inlineStr">
         <is>
-          <t>n // 10**(length(n)-k) = f***** (left) k digits of n</t>
+          <t>n // 10**(length(n)-k) = f**** (left) k digits of n</t>
         </is>
       </c>
       <c r="E20" s="5" t="inlineStr">
@@ -1088,7 +1156,7 @@
       </c>
       <c r="D22" s="5" t="inlineStr">
         <is>
-          <t>def plus(a, b):\n\t\ta, b = max(a, b), min(a, b)\n\t\tres = 0\n\t\td_prev = 0\n\t\tfor i, d_a in *****:\n\t\t\td_b = digit_at(b, i)\n\t\t\td_remainder, d_prev = u_digit.plus(d_a, d_b, d_prev)\n\t\t\tres += shift_left(d_remainder, i)\n\t\tres += shift_left(d_prev, length(a))\n\t\treturn res</t>
+          <t>def plus(a, b):\n\t\ta, b = max(a, b), min(a, b)\n\t\tres = 0\n\t\td_prev = 0\n\t\tfor i, d_a in ********************:\n\t\t\td_b = digit_at(b, i)\n\t\t\td_remainder, d_prev = u_digit.plus(d_a, d_b, d_prev)\n\t\t\tres += shift_left(d_remainder, i)\n\t\tres += shift_left(d_prev, length(a))\n\t\treturn res</t>
         </is>
       </c>
       <c r="E22" s="5" t="inlineStr">
@@ -1228,7 +1296,7 @@
       </c>
       <c r="D27" s="5" t="inlineStr">
         <is>
-          <t>def minus(a, b):\n\t\tif a &lt; b:\n\t\t\treturn *****(b, a)\n\t\td_prev, res = 0, 0\n\t\tfor i, d_a in enumerate(digits(a)):\n\t\t\td_b = digit_at(b, i)\n\t\t\td_remainder, d_prev = u_digit.minus(d_a, d_b, d_prev)\n\t\t\tres += shift_left(d_remainder, i)\n\t\treturn res</t>
+          <t>def minus(a, b):\n\t\tif a &lt; b:\n\t\t\treturn ******(b, a)\n\t\td_prev, res = 0, 0\n\t\tfor i, d_a in enumerate(digits(a)):\n\t\t\td_b = digit_at(b, i)\n\t\t\td_remainder, d_prev = u_digit.minus(d_a, d_b, d_prev)\n\t\t\tres += shift_left(d_remainder, i)\n\t\treturn res</t>
         </is>
       </c>
       <c r="E27" s="13" t="inlineStr">
@@ -1368,7 +1436,7 @@
       </c>
       <c r="D32" s="5" t="inlineStr">
         <is>
-          <t>def mult_digit_int(d, n):\n\t\td_prev, res = 0, 0\n\t\tfor i, d_n in enumerate(digits(n)):\n\t\t\td_remainder, d_prev = u_digit.mult(d, d_n, d_prev)\n\t\t\t***** += shift_left(d_remainder, i)\n\t\tres += shift_left(d_prev, length(n))\n\t\treturn res</t>
+          <t>def mult_digit_int(d, n):\n\t\td_prev, res = 0, 0\n\t\tfor i, d_n in enumerate(digits(n)):\n\t\t\td_remainder, d_prev = u_digit.mult(d, d_n, d_prev)\n\t\t\t** += shift_left(d_remainder, i)\n\t\tres += shift_left(d_prev, length(n))\n\t\treturn res</t>
         </is>
       </c>
       <c r="E32" s="5" t="inlineStr">
@@ -1424,7 +1492,7 @@
       </c>
       <c r="D34" s="5" t="inlineStr">
         <is>
-          <t>def mult_digit_int(d, n):\n\t\td_prev, res = 0, 0\n\t\tfor i, d_n in enumerate(digits(n)):\n\t\t\td_remainder, d_prev = u_digit.mult(d, d_n, d_prev)\n\t\t\tres += shift_left(d_remainder, i)\n\t\tres += shift_left(d_prev, length(*****))\n\t\treturn res</t>
+          <t>def mult_digit_int(d, n):\n\t\td_prev, res = 0, 0\n\t\tfor i, d_n in enumerate(digits(n)):\n\t\t\td_remainder, d_prev = u_digit.mult(d, d_n, d_prev)\n\t\t\tres += shift_left(d_remainder, i)\n\t\tres += shift_left(d_prev, length())\n\t\treturn res</t>
         </is>
       </c>
       <c r="E34" s="5" t="inlineStr">
@@ -1480,7 +1548,7 @@
       </c>
       <c r="D36" s="5" t="inlineStr">
         <is>
-          <t>def mult(a,b):\n\t\tres = 0\n\t\tfor i, d in enumerate(*****):\n\t\t\tres += shift_left(mult_digit_int(d, b), i)\n\t\treturn res</t>
+          <t>def mult(a,b):\n\t\tres = 0\n\t\tfor i, d in enumerate(********):\n\t\t\tres += shift_left(mult_digit_int(d, b), i)\n\t\treturn res</t>
         </is>
       </c>
       <c r="E36" s="5" t="inlineStr">
@@ -1685,7 +1753,7 @@
       </c>
       <c r="D44" s="5" t="inlineStr">
         <is>
-          <t>def minus(a, b):\n\t\tif a &lt; b:\n\t\t\treturn -*****(b, a)\n\t\ti, prev, res = 0, 0, 0\n\t\twhile a &gt;= 10**i:\n\t\t\td_a, d_b = digit_at(a, i), digit_at(b, i)\n\t\t\tremainder, prev = u_digit..minus(d_a, d_b, prev)\n\t\t\tres += remainder * 10**i\n\t\t\ti += 1\n\t\treturn res</t>
+          <t>def minus(a, b):\n\t\tif a &lt; b:\n\t\t\treturn -****(b, a)\n\t\ti, prev, res = 0, 0, 0\n\t\twhile a &gt;= 10**i:\n\t\t\td_a, d_b = digit_at(a, i), digit_at(b, i)\n\t\t\tremainder, prev = u_digit..minus(d_a, d_b, prev)\n\t\t\tres += remainder * 10**i\n\t\t\ti += 1\n\t\treturn res</t>
         </is>
       </c>
       <c r="E44" s="5" t="inlineStr">
@@ -1741,7 +1809,7 @@
       </c>
       <c r="D46" s="5" t="inlineStr">
         <is>
-          <t>def minus(a, b):\n\t\tif a &lt; b:\n\t\t\treturn -minus(b, a)\n\t\ti, prev, res = 0, 0, 0\n\t\twhile a &gt;= 10**i:\n\t\t\td_a, d_b = digit_at(a, i), digit_at(b, i)\n\t\t\tremainder, prev = u_digit..minus(d_a, d_b, prev)\n\t\t\tres += ***** * 10**i\n\t\t\ti += 1\n\t\treturn res</t>
+          <t>def minus(a, b):\n\t\tif a &lt; b:\n\t\t\treturn -minus(b, a)\n\t\ti, prev, res = 0, 0, 0\n\t\twhile a &gt;= 10**i:\n\t\t\td_a, d_b = digit_at(a, i), digit_at(b, i)\n\t\t\tremainder, prev = u_digit..minus(d_a, d_b, prev)\n\t\t\tres += ***************** * 10**i\n\t\t\ti += 1\n\t\treturn res</t>
         </is>
       </c>
       <c r="E46" s="5" t="inlineStr">
@@ -1797,7 +1865,7 @@
       </c>
       <c r="D48" s="5" t="inlineStr">
         <is>
-          <t>def digits(n):\n\t\tif not n:\n\t\t\treturn *****\n\t\ti, li = 0, list()\n\t\twhile n &gt;= 10**i:\n\t\t\t# while there is digit in index i\n\t\t\td = digit_at(n, i)\n\t\t\tli.append(d)\n\t\t\ti += 1\n\t\treturn li</t>
+          <t>def digits(n):\n\t\tif not n:\n\t\t\treturn ***\n\t\ti, li = 0, list()\n\t\twhile n &gt;= 10**i:\n\t\t\t# while there is digit in index i\n\t\t\td = digit_at(n, i)\n\t\t\tli.append(d)\n\t\t\ti += 1\n\t\treturn li</t>
         </is>
       </c>
       <c r="E48" s="5" t="inlineStr">

--- a/Questions/Mathematics/Numbers/Integer.xlsx
+++ b/Questions/Mathematics/Numbers/Integer.xlsx
@@ -200,74 +200,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -1156,7 +1088,7 @@
       </c>
       <c r="D22" s="5" t="inlineStr">
         <is>
-          <t>def plus(a, b):\n\t\ta, b = max(a, b), min(a, b)\n\t\tres = 0\n\t\td_prev = 0\n\t\tfor i, d_a in ********************:\n\t\t\td_b = digit_at(b, i)\n\t\t\td_remainder, d_prev = u_digit.plus(d_a, d_b, d_prev)\n\t\t\tres += shift_left(d_remainder, i)\n\t\tres += shift_left(d_prev, length(a))\n\t\treturn res</t>
+          <t>def plus(a, b):\n\t\ta, b = max(a, b), min(a, b)\n\t\tres = 0\n\t\td_prev = 0\n\t\tfor i, d_a in *****:\n\t\t\td_b = digit_at(b, i)\n\t\t\td_remainder, d_prev = u_digit.plus(d_a, d_b, d_prev)\n\t\t\tres += shift_left(d_remainder, i)\n\t\tres += shift_left(d_prev, length(a))\n\t\treturn res</t>
         </is>
       </c>
       <c r="E22" s="5" t="inlineStr">
@@ -1296,7 +1228,7 @@
       </c>
       <c r="D27" s="5" t="inlineStr">
         <is>
-          <t>def minus(a, b):\n\t\tif a &lt; b:\n\t\t\treturn ******(b, a)\n\t\td_prev, res = 0, 0\n\t\tfor i, d_a in enumerate(digits(a)):\n\t\t\td_b = digit_at(b, i)\n\t\t\td_remainder, d_prev = u_digit.minus(d_a, d_b, d_prev)\n\t\t\tres += shift_left(d_remainder, i)\n\t\treturn res</t>
+          <t>def minus(a, b):\n\t\tif a &lt; b:\n\t\t\treturn *****(b, a)\n\t\td_prev, res = 0, 0\n\t\tfor i, d_a in enumerate(digits(a)):\n\t\t\td_b = digit_at(b, i)\n\t\t\td_remainder, d_prev = u_digit.minus(d_a, d_b, d_prev)\n\t\t\tres += shift_left(d_remainder, i)\n\t\treturn res</t>
         </is>
       </c>
       <c r="E27" s="13" t="inlineStr">
@@ -1548,7 +1480,7 @@
       </c>
       <c r="D36" s="5" t="inlineStr">
         <is>
-          <t>def mult(a,b):\n\t\tres = 0\n\t\tfor i, d in enumerate(********):\n\t\t\tres += shift_left(mult_digit_int(d, b), i)\n\t\treturn res</t>
+          <t>def mult(a,b):\n\t\tres = 0\n\t\tfor i, d in enumerate(*****):\n\t\t\tres += shift_left(mult_digit_int(d, b), i)\n\t\treturn res</t>
         </is>
       </c>
       <c r="E36" s="5" t="inlineStr">
@@ -1809,7 +1741,7 @@
       </c>
       <c r="D46" s="5" t="inlineStr">
         <is>
-          <t>def minus(a, b):\n\t\tif a &lt; b:\n\t\t\treturn -minus(b, a)\n\t\ti, prev, res = 0, 0, 0\n\t\twhile a &gt;= 10**i:\n\t\t\td_a, d_b = digit_at(a, i), digit_at(b, i)\n\t\t\tremainder, prev = u_digit..minus(d_a, d_b, prev)\n\t\t\tres += ***************** * 10**i\n\t\t\ti += 1\n\t\treturn res</t>
+          <t>def minus(a, b):\n\t\tif a &lt; b:\n\t\t\treturn -minus(b, a)\n\t\ti, prev, res = 0, 0, 0\n\t\twhile a &gt;= 10**i:\n\t\t\td_a, d_b = digit_at(a, i), digit_at(b, i)\n\t\t\tremainder, prev = u_digit..minus(d_a, d_b, prev)\n\t\t\tres += ***** * 10**i\n\t\t\ti += 1\n\t\treturn res</t>
         </is>
       </c>
       <c r="E46" s="5" t="inlineStr">
